--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.573149333333333</v>
+        <v>2.274286666666667</v>
       </c>
       <c r="H2">
-        <v>13.719448</v>
+        <v>6.82286</v>
       </c>
       <c r="I2">
-        <v>0.06199325535045235</v>
+        <v>0.03663635825988129</v>
       </c>
       <c r="J2">
-        <v>0.06199325535045234</v>
+        <v>0.03663635825988129</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N2">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O2">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P2">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q2">
-        <v>5.682122802835556</v>
+        <v>0.5949336815155556</v>
       </c>
       <c r="R2">
-        <v>51.13910522552001</v>
+        <v>5.35440313364</v>
       </c>
       <c r="S2">
-        <v>0.02028566996228753</v>
+        <v>0.003018694338851483</v>
       </c>
       <c r="T2">
-        <v>0.02028566996228753</v>
+        <v>0.003018694338851483</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.573149333333333</v>
+        <v>2.274286666666667</v>
       </c>
       <c r="H3">
-        <v>13.719448</v>
+        <v>6.82286</v>
       </c>
       <c r="I3">
-        <v>0.06199325535045235</v>
+        <v>0.03663635825988129</v>
       </c>
       <c r="J3">
-        <v>0.06199325535045234</v>
+        <v>0.03663635825988129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.744414</v>
       </c>
       <c r="N3">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O3">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P3">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q3">
-        <v>7.977465721157333</v>
+        <v>3.967297501346667</v>
       </c>
       <c r="R3">
-        <v>71.797191490416</v>
+        <v>35.70567751212</v>
       </c>
       <c r="S3">
-        <v>0.02848024274908357</v>
+        <v>0.02013007311562286</v>
       </c>
       <c r="T3">
-        <v>0.02848024274908356</v>
+        <v>0.02013007311562286</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.573149333333333</v>
+        <v>2.274286666666667</v>
       </c>
       <c r="H4">
-        <v>13.719448</v>
+        <v>6.82286</v>
       </c>
       <c r="I4">
-        <v>0.06199325535045235</v>
+        <v>0.03663635825988129</v>
       </c>
       <c r="J4">
-        <v>0.06199325535045234</v>
+        <v>0.03663635825988129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N4">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O4">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P4">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q4">
-        <v>3.705048212367111</v>
+        <v>2.658176400757778</v>
       </c>
       <c r="R4">
-        <v>33.345433911304</v>
+        <v>23.92358760682</v>
       </c>
       <c r="S4">
-        <v>0.01322734263908125</v>
+        <v>0.01348759080540695</v>
       </c>
       <c r="T4">
-        <v>0.01322734263908125</v>
+        <v>0.01348759080540695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>172.075852</v>
       </c>
       <c r="I5">
-        <v>0.7775489387534139</v>
+        <v>0.9239867975814116</v>
       </c>
       <c r="J5">
-        <v>0.7775489387534138</v>
+        <v>0.9239867975814117</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N5">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O5">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P5">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q5">
-        <v>71.26789084127556</v>
+        <v>15.00451718638311</v>
       </c>
       <c r="R5">
-        <v>641.4110175714801</v>
+        <v>135.040654677448</v>
       </c>
       <c r="S5">
-        <v>0.2544325356349202</v>
+        <v>0.0761329413597004</v>
       </c>
       <c r="T5">
-        <v>0.2544325356349202</v>
+        <v>0.07613294135970042</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>172.075852</v>
       </c>
       <c r="I6">
-        <v>0.7775489387534139</v>
+        <v>0.9239867975814116</v>
       </c>
       <c r="J6">
-        <v>0.7775489387534138</v>
+        <v>0.9239867975814117</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>1.744414</v>
       </c>
       <c r="N6">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O6">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P6">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q6">
         <v>100.0571750969093</v>
       </c>
       <c r="R6">
-        <v>900.514575872184</v>
+        <v>900.5145758721841</v>
       </c>
       <c r="S6">
-        <v>0.3572127709668332</v>
+        <v>0.5076902475198226</v>
       </c>
       <c r="T6">
-        <v>0.3572127709668331</v>
+        <v>0.5076902475198228</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>172.075852</v>
       </c>
       <c r="I7">
-        <v>0.7775489387534139</v>
+        <v>0.9239867975814116</v>
       </c>
       <c r="J7">
-        <v>0.7775489387534138</v>
+        <v>0.9239867975814117</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N7">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O7">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P7">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q7">
-        <v>46.47047955895511</v>
+        <v>67.04050338519157</v>
       </c>
       <c r="R7">
-        <v>418.234316030596</v>
+        <v>603.364530466724</v>
       </c>
       <c r="S7">
-        <v>0.1659036321516605</v>
+        <v>0.3401636087018885</v>
       </c>
       <c r="T7">
-        <v>0.1659036321516605</v>
+        <v>0.3401636087018886</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.83673133333333</v>
+        <v>2.444408666666666</v>
       </c>
       <c r="H8">
-        <v>35.510194</v>
+        <v>7.333226</v>
       </c>
       <c r="I8">
-        <v>0.1604578058961338</v>
+        <v>0.03937684415870708</v>
       </c>
       <c r="J8">
-        <v>0.1604578058961338</v>
+        <v>0.03937684415870709</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N8">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O8">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P8">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q8">
-        <v>14.70709922589556</v>
+        <v>0.6394361223248889</v>
       </c>
       <c r="R8">
-        <v>132.36389303306</v>
+        <v>5.754925100924</v>
       </c>
       <c r="S8">
-        <v>0.05250561653652559</v>
+        <v>0.003244499786265363</v>
       </c>
       <c r="T8">
-        <v>0.05250561653652558</v>
+        <v>0.003244499786265365</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.83673133333333</v>
+        <v>2.444408666666666</v>
       </c>
       <c r="H9">
-        <v>35.510194</v>
+        <v>7.333226</v>
       </c>
       <c r="I9">
-        <v>0.1604578058961338</v>
+        <v>0.03937684415870708</v>
       </c>
       <c r="J9">
-        <v>0.1604578058961338</v>
+        <v>0.03937684415870709</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>1.744414</v>
       </c>
       <c r="N9">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O9">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P9">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q9">
-        <v>20.64815985210533</v>
+        <v>4.264060699854666</v>
       </c>
       <c r="R9">
-        <v>185.833438668948</v>
+        <v>38.37654629869201</v>
       </c>
       <c r="S9">
-        <v>0.07371571692877518</v>
+        <v>0.0216358500032811</v>
       </c>
       <c r="T9">
-        <v>0.07371571692877515</v>
+        <v>0.02163585000328111</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.83673133333333</v>
+        <v>2.444408666666666</v>
       </c>
       <c r="H10">
-        <v>35.510194</v>
+        <v>7.333226</v>
       </c>
       <c r="I10">
-        <v>0.1604578058961338</v>
+        <v>0.03937684415870708</v>
       </c>
       <c r="J10">
-        <v>0.1604578058961338</v>
+        <v>0.03937684415870709</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N10">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O10">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P10">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q10">
-        <v>9.58981591682911</v>
+        <v>2.857014257162445</v>
       </c>
       <c r="R10">
-        <v>86.30834325146199</v>
+        <v>25.713128314462</v>
       </c>
       <c r="S10">
-        <v>0.03423647243083302</v>
+        <v>0.01449649436916061</v>
       </c>
       <c r="T10">
-        <v>0.03423647243083301</v>
+        <v>0.01449649436916062</v>
       </c>
     </row>
   </sheetData>
